--- a/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20240220/Plate_1_20240220_TLR7_1.xlsx
+++ b/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20240220/Plate_1_20240220_TLR7_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Elke\ELISA\syn Mydd\Plate_1_20240220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAYLOR-LAB/Synthetic Myddosome Paper/6_Manuscript/Source files/Figure 1/1D/Plate_1_20240220/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C91E8D2-D9B6-4B4E-8A94-75576D6FE6D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F0761-4C76-4A46-B40C-E59B08C86BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="880" windowWidth="25940" windowHeight="14800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEASUREMENTS" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="STIM_CONCENTRATION" sheetId="5" r:id="rId5"/>
     <sheet name="CONDITIONS" sheetId="6" r:id="rId6"/>
     <sheet name="DILUTIONS" sheetId="7" r:id="rId7"/>
-    <sheet name="Info" sheetId="8" r:id="rId8"/>
+    <sheet name="PATHWAY" sheetId="9" r:id="rId8"/>
+    <sheet name="STIMULANT" sheetId="10" r:id="rId9"/>
+    <sheet name="Info" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="24">
   <si>
     <t>250</t>
   </si>
@@ -94,12 +96,18 @@
   <si>
     <t>CONCENTRATION is 50ng/ml</t>
   </si>
+  <si>
+    <t>TLR7</t>
+  </si>
+  <si>
+    <t>R848</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -117,6 +125,20 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,12 +199,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,313 +425,313 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1">
         <v>2.7E-2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1">
         <v>0.96909999999999996</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1">
         <v>1.1552</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1">
         <v>1.0323</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1">
         <v>1.5733999999999999</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1">
         <v>1.4365000000000001</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1">
         <v>1.5263</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1">
         <v>2.4491999999999998</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1">
         <v>2.3633000000000002</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1">
         <v>2.3620000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>0.53239999999999998</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>0.65910000000000002</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>0.58460000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>0.95779999999999998</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <v>0.88139999999999996</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <v>0.85640000000000005</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>1.2962</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <v>1.2882</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <v>1.2882</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>4.53E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>1.3585</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>1.1786000000000001</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>1.2729999999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>0.65390000000000004</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <v>0.65580000000000005</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>0.63839999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1.9E-2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>1.77E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>0.40479999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>0.42449999999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>0.38869999999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>0.76670000000000005</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>0.65580000000000005</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>0.69130000000000003</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>0.31059999999999999</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <v>0.307</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>0.35489999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>1.61E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>5.21E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>4.36E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>0.14649999999999999</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>0.1537</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>0.14169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>-3.7000000000000002E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>4.82E-2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>0.8165</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>0.71889999999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>0.8498</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>2.69E-2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>3.09E-2</v>
       </c>
       <c r="C8" s="5">
         <v>2.92E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>0.98209999999999997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>0.96630000000000005</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>0.9798</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
@@ -725,6 +750,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A41939-BC80-4BC3-A2E3-9C41454FFAA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
@@ -736,9 +779,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -776,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -814,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -852,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -890,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -928,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -966,7 +1009,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1047,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,9 +1101,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1380,9 +1423,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1420,7 +1463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1534,7 +1577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1572,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1610,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1702,9 +1745,9 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1932,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1970,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2024,13 +2067,13 @@
       <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2106,7 +2149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2350,13 +2393,13 @@
       <selection activeCell="J7" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2432,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2546,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2584,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2666,19 +2709,639 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A41939-BC80-4BC3-A2E3-9C41454FFAA3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4D7D7-05C4-BA4A-AB49-6B9E9AEBF5F1}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F5AA31-5003-B142-9D81-9AA0527D330F}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>